--- a/REGULAR/OJT/AYCARDO, JOEL.xlsx
+++ b/REGULAR/OJT/AYCARDO, JOEL.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2077AC66-2402-4DA0-88E6-A283C9208864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="133">
   <si>
     <t>PERIOD</t>
   </si>
@@ -440,11 +439,26 @@
   <si>
     <t>FL(5-0-00)</t>
   </si>
+  <si>
+    <t>SL(24-0-0)</t>
+  </si>
+  <si>
+    <t>10/25-31, 11/3-29/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>SL(19-0-0)</t>
+  </si>
+  <si>
+    <t>12/1,4-7,11-15-18-22,26-29/2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1304,7 +1318,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1347,7 +1361,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1411,7 +1425,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1471,7 +1485,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1537,7 +1551,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1600,7 +1614,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1698,7 +1712,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1757,7 +1771,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1822,7 +1836,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1865,7 +1879,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1940,7 +1954,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2126,7 +2140,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2192,7 +2206,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2250,7 +2264,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2316,7 +2330,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2372,7 +2386,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2447,7 +2461,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2490,7 +2504,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2556,7 +2570,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2612,7 +2626,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2710,7 +2724,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2773,7 +2787,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2822,7 +2836,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2839,25 +2853,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K415" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K416" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2869,13 +2883,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2884,14 +2898,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3195,7 +3209,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3205,7 +3219,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3213,34 +3227,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K415"/>
+  <dimension ref="A2:K416"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A200"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A368" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="D322" sqref="D322"/>
+      <selection pane="bottomLeft" activeCell="K387" sqref="K387"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="30.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="30.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3263,7 +3277,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3283,7 +3297,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3305,7 +3319,7 @@
       <c r="J4" s="56"/>
       <c r="K4" s="57"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="F5" s="1" t="s">
         <v>125</v>
@@ -3316,7 +3330,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3329,7 +3343,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -3346,7 +3360,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3381,7 +3395,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3390,7 +3404,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>236.13600000000002</v>
+        <v>229.88600000000002</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3400,12 +3414,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>416.20800000000003</v>
+        <v>366.95800000000003</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>43</v>
       </c>
@@ -3427,7 +3441,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40" t="s">
         <v>44</v>
       </c>
@@ -3447,7 +3461,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>34759</v>
       </c>
@@ -3467,7 +3481,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>34790</v>
       </c>
@@ -3487,7 +3501,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>34820</v>
       </c>
@@ -3507,7 +3521,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>34851</v>
       </c>
@@ -3527,7 +3541,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>34881</v>
       </c>
@@ -3547,7 +3561,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>34912</v>
       </c>
@@ -3567,7 +3581,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>34943</v>
       </c>
@@ -3587,7 +3601,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>34973</v>
       </c>
@@ -3607,7 +3621,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>35004</v>
       </c>
@@ -3627,7 +3641,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>35034</v>
       </c>
@@ -3651,7 +3665,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="47" t="s">
         <v>45</v>
       </c>
@@ -3673,7 +3687,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>35065</v>
       </c>
@@ -3693,7 +3707,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>35096</v>
       </c>
@@ -3713,7 +3727,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>35125</v>
       </c>
@@ -3733,7 +3747,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>35156</v>
       </c>
@@ -3753,7 +3767,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>35186</v>
       </c>
@@ -3773,7 +3787,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>35217</v>
       </c>
@@ -3793,7 +3807,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>35247</v>
       </c>
@@ -3813,7 +3827,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>35278</v>
       </c>
@@ -3833,7 +3847,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>35309</v>
       </c>
@@ -3853,7 +3867,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>35339</v>
       </c>
@@ -3873,7 +3887,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>35370</v>
       </c>
@@ -3893,7 +3907,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>35400</v>
       </c>
@@ -3917,7 +3931,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="47" t="s">
         <v>47</v>
       </c>
@@ -3935,7 +3949,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>35431</v>
       </c>
@@ -3955,7 +3969,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>35462</v>
       </c>
@@ -3975,7 +3989,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>35490</v>
       </c>
@@ -3995,7 +4009,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>35521</v>
       </c>
@@ -4015,7 +4029,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>35551</v>
       </c>
@@ -4041,7 +4055,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>35582</v>
       </c>
@@ -4061,7 +4075,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>35612</v>
       </c>
@@ -4081,7 +4095,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>35643</v>
       </c>
@@ -4101,7 +4115,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>35674</v>
       </c>
@@ -4121,7 +4135,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>35704</v>
       </c>
@@ -4141,7 +4155,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>35735</v>
       </c>
@@ -4161,7 +4175,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>35765</v>
       </c>
@@ -4185,7 +4199,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="47" t="s">
         <v>55</v>
       </c>
@@ -4207,7 +4221,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>35796</v>
       </c>
@@ -4227,7 +4241,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>35827</v>
       </c>
@@ -4247,7 +4261,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>35855</v>
       </c>
@@ -4267,7 +4281,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>35886</v>
       </c>
@@ -4287,7 +4301,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>35916</v>
       </c>
@@ -4307,7 +4321,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>35947</v>
       </c>
@@ -4327,7 +4341,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>35977</v>
       </c>
@@ -4347,7 +4361,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>36008</v>
       </c>
@@ -4373,7 +4387,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>36039</v>
       </c>
@@ -4393,7 +4407,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>36069</v>
       </c>
@@ -4413,7 +4427,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>36100</v>
       </c>
@@ -4433,7 +4447,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>36130</v>
       </c>
@@ -4457,7 +4471,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="47" t="s">
         <v>56</v>
       </c>
@@ -4479,7 +4493,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>36161</v>
       </c>
@@ -4499,7 +4513,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>36192</v>
       </c>
@@ -4519,7 +4533,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>36220</v>
       </c>
@@ -4539,7 +4553,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>36251</v>
       </c>
@@ -4559,7 +4573,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>36281</v>
       </c>
@@ -4579,7 +4593,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>36312</v>
       </c>
@@ -4599,7 +4613,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>36342</v>
       </c>
@@ -4619,7 +4633,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>36373</v>
       </c>
@@ -4639,7 +4653,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>36404</v>
       </c>
@@ -4659,7 +4673,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>36434</v>
       </c>
@@ -4679,7 +4693,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>36465</v>
       </c>
@@ -4705,7 +4719,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>36495</v>
       </c>
@@ -4729,7 +4743,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="47" t="s">
         <v>57</v>
       </c>
@@ -4751,7 +4765,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>36526</v>
       </c>
@@ -4771,7 +4785,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>36557</v>
       </c>
@@ -4791,7 +4805,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>36586</v>
       </c>
@@ -4811,7 +4825,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>36617</v>
       </c>
@@ -4831,7 +4845,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>36647</v>
       </c>
@@ -4851,7 +4865,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>36678</v>
       </c>
@@ -4871,7 +4885,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>36708</v>
       </c>
@@ -4891,7 +4905,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>36739</v>
       </c>
@@ -4911,7 +4925,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>36770</v>
       </c>
@@ -4931,7 +4945,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>36800</v>
       </c>
@@ -4957,7 +4971,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>36831</v>
       </c>
@@ -4977,7 +4991,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>36861</v>
       </c>
@@ -4997,7 +5011,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="47" t="s">
         <v>58</v>
       </c>
@@ -5019,7 +5033,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>36892</v>
       </c>
@@ -5039,7 +5053,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>36923</v>
       </c>
@@ -5065,7 +5079,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>36951</v>
       </c>
@@ -5085,7 +5099,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>36982</v>
       </c>
@@ -5105,7 +5119,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>37012</v>
       </c>
@@ -5125,7 +5139,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>37043</v>
       </c>
@@ -5145,7 +5159,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>37073</v>
       </c>
@@ -5171,7 +5185,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>37104</v>
       </c>
@@ -5191,7 +5205,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>37135</v>
       </c>
@@ -5217,7 +5231,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>37165</v>
       </c>
@@ -5237,7 +5251,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>37196</v>
       </c>
@@ -5257,7 +5271,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>37226</v>
       </c>
@@ -5277,7 +5291,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="47" t="s">
         <v>59</v>
       </c>
@@ -5299,7 +5313,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>37257</v>
       </c>
@@ -5319,7 +5333,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>37288</v>
       </c>
@@ -5339,7 +5353,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>37316</v>
       </c>
@@ -5359,7 +5373,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>37347</v>
       </c>
@@ -5379,7 +5393,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>37377</v>
       </c>
@@ -5399,7 +5413,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>37408</v>
       </c>
@@ -5419,7 +5433,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>37438</v>
       </c>
@@ -5439,7 +5453,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>37469</v>
       </c>
@@ -5459,7 +5473,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>37500</v>
       </c>
@@ -5479,7 +5493,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>37530</v>
       </c>
@@ -5499,7 +5513,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>37561</v>
       </c>
@@ -5519,7 +5533,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>37591</v>
       </c>
@@ -5543,7 +5557,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="47" t="s">
         <v>60</v>
       </c>
@@ -5565,7 +5579,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>37622</v>
       </c>
@@ -5585,7 +5599,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>37653</v>
       </c>
@@ -5605,7 +5619,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>37681</v>
       </c>
@@ -5625,7 +5639,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>37712</v>
       </c>
@@ -5645,7 +5659,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>37742</v>
       </c>
@@ -5665,7 +5679,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>37773</v>
       </c>
@@ -5685,7 +5699,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>37803</v>
       </c>
@@ -5711,7 +5725,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>37834</v>
       </c>
@@ -5731,7 +5745,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <v>37865</v>
       </c>
@@ -5751,7 +5765,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>37895</v>
       </c>
@@ -5771,7 +5785,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>37926</v>
       </c>
@@ -5791,7 +5805,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>37956</v>
       </c>
@@ -5811,7 +5825,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="47" t="s">
         <v>61</v>
       </c>
@@ -5833,7 +5847,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <v>37987</v>
       </c>
@@ -5853,7 +5867,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <v>38018</v>
       </c>
@@ -5873,7 +5887,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>38047</v>
       </c>
@@ -5893,7 +5907,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <v>38078</v>
       </c>
@@ -5913,7 +5927,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <v>38108</v>
       </c>
@@ -5939,7 +5953,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <v>38139</v>
       </c>
@@ -5959,7 +5973,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <v>38169</v>
       </c>
@@ -5979,7 +5993,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <v>38200</v>
       </c>
@@ -5999,7 +6013,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <v>38231</v>
       </c>
@@ -6019,7 +6033,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <v>38261</v>
       </c>
@@ -6039,7 +6053,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <v>38292</v>
       </c>
@@ -6059,7 +6073,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <v>38322</v>
       </c>
@@ -6079,7 +6093,7 @@
       <c r="J138" s="12"/>
       <c r="K138" s="15"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="47" t="s">
         <v>62</v>
       </c>
@@ -6101,7 +6115,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <v>38353</v>
       </c>
@@ -6121,7 +6135,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <v>38384</v>
       </c>
@@ -6141,7 +6155,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <v>38412</v>
       </c>
@@ -6161,7 +6175,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <v>38443</v>
       </c>
@@ -6181,7 +6195,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <v>38473</v>
       </c>
@@ -6201,7 +6215,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <v>38504</v>
       </c>
@@ -6221,7 +6235,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <v>38534</v>
       </c>
@@ -6241,7 +6255,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <v>38576</v>
       </c>
@@ -6263,7 +6277,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40" t="s">
         <v>104</v>
       </c>
@@ -6281,7 +6295,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <v>38596</v>
       </c>
@@ -6301,7 +6315,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <v>38626</v>
       </c>
@@ -6327,7 +6341,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <v>38657</v>
       </c>
@@ -6347,7 +6361,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <v>38687</v>
       </c>
@@ -6367,7 +6381,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="47" t="s">
         <v>63</v>
       </c>
@@ -6389,7 +6403,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <v>38718</v>
       </c>
@@ -6413,7 +6427,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <v>38749</v>
       </c>
@@ -6433,7 +6447,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
         <v>38777</v>
       </c>
@@ -6453,7 +6467,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
         <v>38808</v>
       </c>
@@ -6473,7 +6487,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <v>38838</v>
       </c>
@@ -6493,7 +6507,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
         <v>38869</v>
       </c>
@@ -6513,7 +6527,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
         <v>38899</v>
       </c>
@@ -6533,7 +6547,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <v>38930</v>
       </c>
@@ -6557,7 +6571,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
         <v>38961</v>
       </c>
@@ -6581,7 +6595,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <v>38991</v>
       </c>
@@ -6605,7 +6619,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40">
         <v>39022</v>
       </c>
@@ -6625,7 +6639,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
         <v>39052</v>
       </c>
@@ -6649,7 +6663,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="47" t="s">
         <v>64</v>
       </c>
@@ -6671,7 +6685,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40">
         <v>39083</v>
       </c>
@@ -6691,7 +6705,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
         <v>39114</v>
       </c>
@@ -6717,7 +6731,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <v>39142</v>
       </c>
@@ -6737,7 +6751,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
         <v>39173</v>
       </c>
@@ -6757,7 +6771,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <v>39203</v>
       </c>
@@ -6777,7 +6791,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
         <v>39234</v>
       </c>
@@ -6797,7 +6811,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40">
         <v>39264</v>
       </c>
@@ -6817,7 +6831,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40">
         <v>39295</v>
       </c>
@@ -6837,7 +6851,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40">
         <v>39326</v>
       </c>
@@ -6857,7 +6871,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <v>39356</v>
       </c>
@@ -6877,7 +6891,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
         <v>39387</v>
       </c>
@@ -6897,7 +6911,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <v>39417</v>
       </c>
@@ -6917,7 +6931,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="47" t="s">
         <v>65</v>
       </c>
@@ -6939,7 +6953,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <v>39448</v>
       </c>
@@ -6959,7 +6973,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <v>39479</v>
       </c>
@@ -6979,7 +6993,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
         <v>39508</v>
       </c>
@@ -7003,7 +7017,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40"/>
       <c r="B183" s="20" t="s">
         <v>95</v>
@@ -7023,7 +7037,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
         <v>39539</v>
       </c>
@@ -7043,7 +7057,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <v>39569</v>
       </c>
@@ -7063,7 +7077,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <v>39600</v>
       </c>
@@ -7083,7 +7097,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <v>39630</v>
       </c>
@@ -7103,7 +7117,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
         <v>39661</v>
       </c>
@@ -7123,7 +7137,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <v>39692</v>
       </c>
@@ -7143,7 +7157,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <v>39722</v>
       </c>
@@ -7163,7 +7177,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
         <v>39753</v>
       </c>
@@ -7189,7 +7203,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
         <v>39783</v>
       </c>
@@ -7209,7 +7223,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="47" t="s">
         <v>66</v>
       </c>
@@ -7231,7 +7245,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <v>39814</v>
       </c>
@@ -7251,7 +7265,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <v>39845</v>
       </c>
@@ -7271,7 +7285,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <v>39873</v>
       </c>
@@ -7291,7 +7305,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <v>39904</v>
       </c>
@@ -7311,7 +7325,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
         <v>39934</v>
       </c>
@@ -7331,7 +7345,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
         <v>39965</v>
       </c>
@@ -7351,7 +7365,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <v>39995</v>
       </c>
@@ -7371,7 +7385,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <v>40026</v>
       </c>
@@ -7391,7 +7405,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
         <v>40057</v>
       </c>
@@ -7411,7 +7425,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
         <v>40087</v>
       </c>
@@ -7431,7 +7445,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
         <v>40118</v>
       </c>
@@ -7451,7 +7465,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
         <v>40148</v>
       </c>
@@ -7475,7 +7489,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="47" t="s">
         <v>67</v>
       </c>
@@ -7497,7 +7511,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <v>40179</v>
       </c>
@@ -7517,7 +7531,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
         <v>40210</v>
       </c>
@@ -7537,7 +7551,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
         <v>40238</v>
       </c>
@@ -7557,7 +7571,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <v>40269</v>
       </c>
@@ -7577,7 +7591,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <v>40299</v>
       </c>
@@ -7603,7 +7617,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40">
         <v>40330</v>
       </c>
@@ -7623,7 +7637,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <v>40360</v>
       </c>
@@ -7643,7 +7657,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <v>40391</v>
       </c>
@@ -7663,7 +7677,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
         <v>40422</v>
       </c>
@@ -7683,7 +7697,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
         <v>40452</v>
       </c>
@@ -7703,7 +7717,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
         <v>40483</v>
       </c>
@@ -7723,7 +7737,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
         <v>40513</v>
       </c>
@@ -7743,7 +7757,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="47" t="s">
         <v>68</v>
       </c>
@@ -7765,7 +7779,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <v>40544</v>
       </c>
@@ -7785,7 +7799,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
         <v>40575</v>
       </c>
@@ -7805,7 +7819,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
         <v>40603</v>
       </c>
@@ -7825,7 +7839,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
         <v>40634</v>
       </c>
@@ -7845,7 +7859,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
         <v>40664</v>
       </c>
@@ -7865,7 +7879,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40">
         <v>40695</v>
       </c>
@@ -7885,7 +7899,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <v>40725</v>
       </c>
@@ -7905,7 +7919,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40">
         <v>40756</v>
       </c>
@@ -7925,7 +7939,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <v>40787</v>
       </c>
@@ -7945,7 +7959,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
         <v>40817</v>
       </c>
@@ -7965,7 +7979,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <v>40848</v>
       </c>
@@ -7985,7 +7999,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
         <v>40878</v>
       </c>
@@ -8009,7 +8023,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="47" t="s">
         <v>69</v>
       </c>
@@ -8031,7 +8045,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
         <v>40909</v>
       </c>
@@ -8051,7 +8065,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40">
         <v>40940</v>
       </c>
@@ -8071,7 +8085,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40">
         <v>40969</v>
       </c>
@@ -8091,7 +8105,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <v>41000</v>
       </c>
@@ -8111,7 +8125,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40">
         <v>41030</v>
       </c>
@@ -8131,7 +8145,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40">
         <v>41061</v>
       </c>
@@ -8151,7 +8165,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40">
         <v>41091</v>
       </c>
@@ -8171,7 +8185,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <v>41122</v>
       </c>
@@ -8191,7 +8205,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40">
         <v>41153</v>
       </c>
@@ -8211,7 +8225,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
         <v>41183</v>
       </c>
@@ -8231,7 +8245,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
         <v>41214</v>
       </c>
@@ -8251,7 +8265,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40">
         <v>41244</v>
       </c>
@@ -8275,7 +8289,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="47" t="s">
         <v>54</v>
       </c>
@@ -8297,7 +8311,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40">
         <v>41275</v>
       </c>
@@ -8317,7 +8331,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40">
         <v>41306</v>
       </c>
@@ -8337,7 +8351,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40">
         <v>41334</v>
       </c>
@@ -8357,7 +8371,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40">
         <v>41365</v>
       </c>
@@ -8377,7 +8391,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
         <v>41395</v>
       </c>
@@ -8397,7 +8411,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40">
         <v>41426</v>
       </c>
@@ -8417,7 +8431,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
         <v>41456</v>
       </c>
@@ -8437,7 +8451,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40">
         <v>41487</v>
       </c>
@@ -8457,7 +8471,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <v>41518</v>
       </c>
@@ -8477,7 +8491,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40">
         <v>41548</v>
       </c>
@@ -8497,7 +8511,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
         <v>41579</v>
       </c>
@@ -8517,7 +8531,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
         <v>41609</v>
       </c>
@@ -8539,7 +8553,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="47" t="s">
         <v>53</v>
       </c>
@@ -8561,7 +8575,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40">
         <v>41640</v>
       </c>
@@ -8587,7 +8601,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
         <v>41671</v>
       </c>
@@ -8607,7 +8621,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40">
         <v>41699</v>
       </c>
@@ -8627,7 +8641,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40">
         <v>41730</v>
       </c>
@@ -8647,7 +8661,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40" t="s">
         <v>109</v>
       </c>
@@ -8667,7 +8681,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40" t="s">
         <v>103</v>
       </c>
@@ -8687,7 +8701,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40">
         <v>41791</v>
       </c>
@@ -8707,7 +8721,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40">
         <v>41821</v>
       </c>
@@ -8727,7 +8741,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
         <v>41852</v>
       </c>
@@ -8747,7 +8761,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40">
         <v>41883</v>
       </c>
@@ -8767,7 +8781,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40">
         <v>41913</v>
       </c>
@@ -8787,7 +8801,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40">
         <v>41944</v>
       </c>
@@ -8807,7 +8821,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40">
         <v>41974</v>
       </c>
@@ -8827,7 +8841,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="47" t="s">
         <v>52</v>
       </c>
@@ -8849,7 +8863,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40">
         <v>42005</v>
       </c>
@@ -8869,7 +8883,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40">
         <v>42036</v>
       </c>
@@ -8889,7 +8903,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40">
         <v>42064</v>
       </c>
@@ -8909,7 +8923,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40">
         <v>42095</v>
       </c>
@@ -8929,7 +8943,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
         <v>42125</v>
       </c>
@@ -8949,7 +8963,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
         <v>42156</v>
       </c>
@@ -8969,7 +8983,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40">
         <v>42186</v>
       </c>
@@ -8989,7 +9003,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
         <v>42217</v>
       </c>
@@ -9009,7 +9023,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40">
         <v>42248</v>
       </c>
@@ -9029,7 +9043,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <v>42278</v>
       </c>
@@ -9049,7 +9063,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40">
         <v>42309</v>
       </c>
@@ -9069,7 +9083,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40">
         <v>42339</v>
       </c>
@@ -9093,7 +9107,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="47" t="s">
         <v>51</v>
       </c>
@@ -9115,7 +9129,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
         <v>42370</v>
       </c>
@@ -9135,7 +9149,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40">
         <v>42401</v>
       </c>
@@ -9155,7 +9169,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40">
         <v>42430</v>
       </c>
@@ -9175,7 +9189,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
         <v>42461</v>
       </c>
@@ -9195,7 +9209,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40">
         <v>42491</v>
       </c>
@@ -9215,7 +9229,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
         <v>42522</v>
       </c>
@@ -9235,7 +9249,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
         <v>42552</v>
       </c>
@@ -9255,7 +9269,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40">
         <v>42583</v>
       </c>
@@ -9275,7 +9289,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
         <v>42614</v>
       </c>
@@ -9295,7 +9309,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40">
         <v>42644</v>
       </c>
@@ -9315,7 +9329,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40">
         <v>42675</v>
       </c>
@@ -9335,7 +9349,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40">
         <v>42705</v>
       </c>
@@ -9359,7 +9373,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="47" t="s">
         <v>50</v>
       </c>
@@ -9381,7 +9395,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40">
         <v>42736</v>
       </c>
@@ -9401,7 +9415,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40">
         <v>42767</v>
       </c>
@@ -9421,7 +9435,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40">
         <v>42795</v>
       </c>
@@ -9441,7 +9455,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
         <v>42826</v>
       </c>
@@ -9461,7 +9475,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
         <v>42856</v>
       </c>
@@ -9487,7 +9501,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40">
         <v>42887</v>
       </c>
@@ -9507,7 +9521,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40">
         <v>42917</v>
       </c>
@@ -9527,7 +9541,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40">
         <v>42948</v>
       </c>
@@ -9547,7 +9561,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <v>42979</v>
       </c>
@@ -9567,7 +9581,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40">
         <v>43009</v>
       </c>
@@ -9587,7 +9601,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
         <v>43040</v>
       </c>
@@ -9607,7 +9621,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40">
         <v>43070</v>
       </c>
@@ -9627,7 +9641,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="47" t="s">
         <v>49</v>
       </c>
@@ -9647,7 +9661,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40">
         <v>43101</v>
       </c>
@@ -9667,7 +9681,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40">
         <v>43132</v>
       </c>
@@ -9687,7 +9701,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40">
         <v>43160</v>
       </c>
@@ -9707,7 +9721,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40">
         <v>43191</v>
       </c>
@@ -9727,7 +9741,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="48">
         <v>43221</v>
       </c>
@@ -9753,7 +9767,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40">
         <v>43252</v>
       </c>
@@ -9773,7 +9787,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <v>43282</v>
       </c>
@@ -9793,7 +9807,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40">
         <v>43344</v>
       </c>
@@ -9813,7 +9827,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40">
         <v>43374</v>
       </c>
@@ -9833,7 +9847,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40">
         <v>43405</v>
       </c>
@@ -9853,7 +9867,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <v>43435</v>
       </c>
@@ -9873,7 +9887,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="23" t="s">
         <v>111</v>
       </c>
@@ -9891,7 +9905,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40">
         <v>43466</v>
       </c>
@@ -9913,7 +9927,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
         <v>43497</v>
       </c>
@@ -9933,7 +9947,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40">
         <v>43525</v>
       </c>
@@ -9953,7 +9967,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
         <v>43556</v>
       </c>
@@ -9973,7 +9987,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
         <v>43586</v>
       </c>
@@ -9999,7 +10013,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
         <v>43617</v>
       </c>
@@ -10019,7 +10033,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40">
         <v>43647</v>
       </c>
@@ -10039,7 +10053,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40">
         <v>43678</v>
       </c>
@@ -10059,7 +10073,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40">
         <v>43709</v>
       </c>
@@ -10079,7 +10093,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
         <v>43739</v>
       </c>
@@ -10099,7 +10113,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40">
         <v>43770</v>
       </c>
@@ -10119,7 +10133,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
         <v>43800</v>
       </c>
@@ -10139,7 +10153,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="47" t="s">
         <v>48</v>
       </c>
@@ -10157,7 +10171,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
         <v>43831</v>
       </c>
@@ -10185,7 +10199,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40">
         <v>43862</v>
       </c>
@@ -10205,7 +10219,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40">
         <v>43891</v>
       </c>
@@ -10225,7 +10239,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40">
         <v>43922</v>
       </c>
@@ -10245,7 +10259,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40">
         <v>43952</v>
       </c>
@@ -10265,7 +10279,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40">
         <v>43983</v>
       </c>
@@ -10285,7 +10299,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40">
         <v>44013</v>
       </c>
@@ -10305,7 +10319,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40">
         <v>44044</v>
       </c>
@@ -10325,7 +10339,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40">
         <v>44075</v>
       </c>
@@ -10345,7 +10359,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40">
         <v>44105</v>
       </c>
@@ -10365,7 +10379,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40">
         <v>44136</v>
       </c>
@@ -10385,7 +10399,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40">
         <v>44166</v>
       </c>
@@ -10409,7 +10423,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="23" t="s">
         <v>113</v>
       </c>
@@ -10427,7 +10441,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40">
         <v>44197</v>
       </c>
@@ -10449,7 +10463,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40">
         <v>44228</v>
       </c>
@@ -10469,7 +10483,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40">
         <v>44256</v>
       </c>
@@ -10489,7 +10503,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40">
         <v>44287</v>
       </c>
@@ -10509,7 +10523,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40">
         <v>44317</v>
       </c>
@@ -10529,7 +10543,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40">
         <v>44348</v>
       </c>
@@ -10549,7 +10563,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40">
         <v>44378</v>
       </c>
@@ -10569,7 +10583,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40">
         <v>44409</v>
       </c>
@@ -10589,7 +10603,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40">
         <v>44440</v>
       </c>
@@ -10609,7 +10623,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40">
         <v>44470</v>
       </c>
@@ -10629,7 +10643,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40">
         <v>44501</v>
       </c>
@@ -10655,7 +10669,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40">
         <v>44531</v>
       </c>
@@ -10673,7 +10687,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="47" t="s">
         <v>107</v>
       </c>
@@ -10691,7 +10705,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40">
         <v>44562</v>
       </c>
@@ -10711,7 +10725,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40">
         <v>44593</v>
       </c>
@@ -10731,7 +10745,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40">
         <v>44621</v>
       </c>
@@ -10751,7 +10765,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40">
         <v>44652</v>
       </c>
@@ -10771,7 +10785,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40">
         <v>44682</v>
       </c>
@@ -10791,7 +10805,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40">
         <v>44713</v>
       </c>
@@ -10811,7 +10825,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40">
         <v>44743</v>
       </c>
@@ -10831,7 +10845,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40">
         <v>44774</v>
       </c>
@@ -10851,7 +10865,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40">
         <v>44805</v>
       </c>
@@ -10871,7 +10885,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
         <v>44835</v>
       </c>
@@ -10891,7 +10905,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40">
         <v>44866</v>
       </c>
@@ -10911,7 +10925,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40">
         <v>44896</v>
       </c>
@@ -10935,7 +10949,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="47" t="s">
         <v>108</v>
       </c>
@@ -10953,7 +10967,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40">
         <v>44957</v>
       </c>
@@ -10979,7 +10993,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40">
         <v>44985</v>
       </c>
@@ -10999,7 +11013,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40">
         <v>45016</v>
       </c>
@@ -11019,7 +11033,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40">
         <v>45046</v>
       </c>
@@ -11039,7 +11053,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
         <v>45077</v>
       </c>
@@ -11059,7 +11073,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40">
         <v>45107</v>
       </c>
@@ -11079,7 +11093,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
         <v>45138</v>
       </c>
@@ -11099,7 +11113,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
         <v>45114</v>
       </c>
@@ -11123,7 +11137,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40"/>
       <c r="B384" s="49" t="s">
         <v>120</v>
@@ -11141,7 +11155,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40">
         <v>45208</v>
       </c>
@@ -11161,11 +11175,13 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40">
         <v>45260</v>
       </c>
-      <c r="B386" s="20"/>
+      <c r="B386" s="20" t="s">
+        <v>128</v>
+      </c>
       <c r="C386" s="13">
         <v>1.25</v>
       </c>
@@ -11176,113 +11192,115 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H386" s="39"/>
+      <c r="H386" s="39">
+        <v>24</v>
+      </c>
       <c r="I386" s="9"/>
       <c r="J386" s="11"/>
-      <c r="K386" s="20"/>
-    </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K386" s="20" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40">
         <v>45291</v>
       </c>
-      <c r="B387" s="20"/>
-      <c r="C387" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="B387" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="C387" s="13"/>
       <c r="D387" s="39"/>
       <c r="E387" s="9"/>
       <c r="F387" s="20"/>
-      <c r="G387" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H387" s="39"/>
+      <c r="G387" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H387" s="39">
+        <v>19</v>
+      </c>
       <c r="I387" s="9"/>
       <c r="J387" s="11"/>
-      <c r="K387" s="20"/>
-    </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A388" s="40">
-        <v>45322</v>
+      <c r="K387" s="20" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A388" s="47" t="s">
+        <v>130</v>
       </c>
       <c r="B388" s="20"/>
-      <c r="C388" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C388" s="13"/>
       <c r="D388" s="39"/>
       <c r="E388" s="9"/>
       <c r="F388" s="20"/>
-      <c r="G388" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G388" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H388" s="39"/>
       <c r="I388" s="9"/>
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40">
-        <v>45351</v>
+        <v>45322</v>
       </c>
       <c r="B389" s="20"/>
-      <c r="C389" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C389" s="13"/>
       <c r="D389" s="39"/>
       <c r="E389" s="9"/>
       <c r="F389" s="20"/>
-      <c r="G389" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G389" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H389" s="39"/>
       <c r="I389" s="9"/>
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40">
-        <v>45382</v>
+        <v>45351</v>
       </c>
       <c r="B390" s="20"/>
-      <c r="C390" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C390" s="13"/>
       <c r="D390" s="39"/>
       <c r="E390" s="9"/>
       <c r="F390" s="20"/>
-      <c r="G390" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G390" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H390" s="39"/>
       <c r="I390" s="9"/>
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40">
-        <v>45412</v>
+        <v>45382</v>
       </c>
       <c r="B391" s="20"/>
-      <c r="C391" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C391" s="13"/>
       <c r="D391" s="39"/>
       <c r="E391" s="9"/>
       <c r="F391" s="20"/>
-      <c r="G391" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G391" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H391" s="39"/>
       <c r="I391" s="9"/>
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A392" s="40"/>
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A392" s="40">
+        <v>45412</v>
+      </c>
       <c r="B392" s="20"/>
       <c r="C392" s="13"/>
       <c r="D392" s="39"/>
@@ -11297,7 +11315,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40"/>
       <c r="B393" s="20"/>
       <c r="C393" s="13"/>
@@ -11313,7 +11331,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40"/>
       <c r="B394" s="20"/>
       <c r="C394" s="13"/>
@@ -11329,7 +11347,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40"/>
       <c r="B395" s="20"/>
       <c r="C395" s="13"/>
@@ -11345,7 +11363,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40"/>
       <c r="B396" s="20"/>
       <c r="C396" s="13"/>
@@ -11361,7 +11379,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40"/>
       <c r="B397" s="20"/>
       <c r="C397" s="13"/>
@@ -11377,7 +11395,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40"/>
       <c r="B398" s="20"/>
       <c r="C398" s="13"/>
@@ -11393,7 +11411,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40"/>
       <c r="B399" s="20"/>
       <c r="C399" s="13"/>
@@ -11409,7 +11427,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40"/>
       <c r="B400" s="20"/>
       <c r="C400" s="13"/>
@@ -11425,7 +11443,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40"/>
       <c r="B401" s="20"/>
       <c r="C401" s="13"/>
@@ -11441,7 +11459,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40"/>
       <c r="B402" s="20"/>
       <c r="C402" s="13"/>
@@ -11457,7 +11475,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40"/>
       <c r="B403" s="20"/>
       <c r="C403" s="13"/>
@@ -11473,7 +11491,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40"/>
       <c r="B404" s="20"/>
       <c r="C404" s="13"/>
@@ -11489,7 +11507,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40"/>
       <c r="B405" s="20"/>
       <c r="C405" s="13"/>
@@ -11505,7 +11523,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40"/>
       <c r="B406" s="20"/>
       <c r="C406" s="13"/>
@@ -11521,7 +11539,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40"/>
       <c r="B407" s="20"/>
       <c r="C407" s="13"/>
@@ -11537,7 +11555,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40"/>
       <c r="B408" s="20"/>
       <c r="C408" s="13"/>
@@ -11553,7 +11571,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40"/>
       <c r="B409" s="20"/>
       <c r="C409" s="13"/>
@@ -11569,7 +11587,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40"/>
       <c r="B410" s="20"/>
       <c r="C410" s="13"/>
@@ -11585,7 +11603,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40"/>
       <c r="B411" s="20"/>
       <c r="C411" s="13"/>
@@ -11601,7 +11619,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40"/>
       <c r="B412" s="20"/>
       <c r="C412" s="13"/>
@@ -11617,7 +11635,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40"/>
       <c r="B413" s="20"/>
       <c r="C413" s="13"/>
@@ -11633,7 +11651,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40"/>
       <c r="B414" s="20"/>
       <c r="C414" s="13"/>
@@ -11649,21 +11667,37 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A415" s="48"/>
-      <c r="B415" s="15"/>
-      <c r="C415" s="41"/>
-      <c r="D415" s="42"/>
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A415" s="40"/>
+      <c r="B415" s="20"/>
+      <c r="C415" s="13"/>
+      <c r="D415" s="39"/>
       <c r="E415" s="9"/>
-      <c r="F415" s="15"/>
-      <c r="G415" s="41" t="str">
+      <c r="F415" s="20"/>
+      <c r="G415" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H415" s="42"/>
+      <c r="H415" s="39"/>
       <c r="I415" s="9"/>
-      <c r="J415" s="12"/>
-      <c r="K415" s="15"/>
+      <c r="J415" s="11"/>
+      <c r="K415" s="20"/>
+    </row>
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A416" s="48"/>
+      <c r="B416" s="15"/>
+      <c r="C416" s="41"/>
+      <c r="D416" s="42"/>
+      <c r="E416" s="9"/>
+      <c r="F416" s="15"/>
+      <c r="G416" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H416" s="42"/>
+      <c r="I416" s="9"/>
+      <c r="J416" s="12"/>
+      <c r="K416" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -11680,10 +11714,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11706,7 +11740,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -11714,21 +11748,21 @@
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -11741,7 +11775,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -11770,7 +11804,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3"/>
@@ -11796,17 +11830,17 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -11827,7 +11861,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -11854,7 +11888,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -11880,7 +11914,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -11906,7 +11940,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -11932,7 +11966,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -11958,7 +11992,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -11984,7 +12018,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -12010,7 +12044,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -12036,7 +12070,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -12056,7 +12090,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -12076,7 +12110,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -12096,7 +12130,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -12117,7 +12151,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -12138,7 +12172,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -12159,7 +12193,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -12180,7 +12214,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -12201,7 +12235,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -12222,7 +12256,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -12243,7 +12277,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -12264,7 +12298,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -12285,7 +12319,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -12306,7 +12340,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -12327,7 +12361,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -12348,7 +12382,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -12369,7 +12403,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -12390,7 +12424,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -12411,7 +12445,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -12432,7 +12466,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -12453,7 +12487,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -12474,7 +12508,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -12495,7 +12529,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -12516,7 +12550,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -12525,7 +12559,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -12534,7 +12568,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -12543,7 +12577,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -12552,7 +12586,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -12561,7 +12595,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -12570,7 +12604,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -12579,7 +12613,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -12588,7 +12622,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -12597,7 +12631,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -12606,7 +12640,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -12615,7 +12649,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -12624,7 +12658,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -12633,7 +12667,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -12642,7 +12676,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -12651,7 +12685,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -12660,7 +12694,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -12669,7 +12703,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -12678,7 +12712,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -12687,7 +12721,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -12696,7 +12730,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -12705,7 +12739,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -12714,7 +12748,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -12723,7 +12757,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -12732,7 +12766,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -12741,7 +12775,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -12750,7 +12784,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -12759,7 +12793,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -12768,7 +12802,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -12777,7 +12811,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
